--- a/Análisis de proceso/Tiempos Finales.xlsx
+++ b/Análisis de proceso/Tiempos Finales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Universidad\Trabajos_Mecatronica\9_Semestre\APM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Universidad\Trabajos_Mecatronica\9_Semestre\APM\INFERA\Análisis de proceso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F845108A-DB2D-425E-B91A-32E1486EE2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C190E93-F698-4646-9EC8-02464CD78349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A614593-3E09-4BE1-8029-98BCD4E98846}"/>
   </bookViews>
@@ -195,10 +195,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -208,15 +214,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -565,7 +562,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,105 +583,105 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="32.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>1520</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>1847</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>49.76</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>48.96</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>1.21</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>76</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>52</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="2">
         <v>1595</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>45</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -693,60 +690,60 @@
       <c r="C8" s="2">
         <v>1550</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>1877</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>49.76</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>48.96</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>1.21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>81</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="2">
         <v>1595</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2">
         <v>45</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -755,76 +752,76 @@
       <c r="C12" s="2">
         <v>1565</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>1772</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>99.53</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>97.92</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2">
         <v>1570</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="2">
         <v>1595</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="10"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2">
         <v>45</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="D3:D7"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="G12:G15"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Análisis de proceso/Tiempos Finales.xlsx
+++ b/Análisis de proceso/Tiempos Finales.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Universidad\Trabajos_Mecatronica\9_Semestre\APM\INFERA\Análisis de proceso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C190E93-F698-4646-9EC8-02464CD78349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7502BE-C138-4AC6-A797-ACC8E371F4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A614593-3E09-4BE1-8029-98BCD4E98846}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4A614593-3E09-4BE1-8029-98BCD4E98846}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Post" sheetId="2" r:id="rId1"/>
+    <sheet name="Pre" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Takt Time [min]</t>
   </si>
@@ -558,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A68451-FCD3-486E-B49B-91312CF37AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD44ECC-4235-4D14-AD2E-616CDD1C34CC}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,10 +614,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="3">
-        <v>1520</v>
+        <v>1508</v>
       </c>
       <c r="D3" s="5">
-        <v>1847</v>
+        <v>1835</v>
       </c>
       <c r="E3" s="5">
         <v>49.76</v>
@@ -634,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -647,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -673,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -688,10 +689,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>1550</v>
+        <v>1520</v>
       </c>
       <c r="D8" s="5">
-        <v>1877</v>
+        <v>1847</v>
       </c>
       <c r="E8" s="5">
         <v>49.76</v>
@@ -709,7 +710,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -735,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -750,10 +751,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>1565</v>
+        <v>1544</v>
       </c>
       <c r="D12" s="5">
-        <v>1772</v>
+        <v>1746</v>
       </c>
       <c r="E12" s="5">
         <v>99.53</v>
@@ -771,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>1570</v>
+        <v>1541</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -797,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -807,21 +808,291 @@
     <row r="16" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="G3:G7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="F8:F11"/>
     <mergeCell ref="G8:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A68451-FCD3-486E-B49B-91312CF37AB7}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1520</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1847</v>
+      </c>
+      <c r="E3" s="5">
+        <v>49.76</v>
+      </c>
+      <c r="F3" s="5">
+        <v>48.96</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>76</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1595</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1550</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1877</v>
+      </c>
+      <c r="E8" s="5">
+        <v>49.76</v>
+      </c>
+      <c r="F8" s="5">
+        <v>48.96</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>81</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1595</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1565</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1772</v>
+      </c>
+      <c r="E12" s="5">
+        <v>99.53</v>
+      </c>
+      <c r="F12" s="5">
+        <v>97.92</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1570</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1595</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="D3:D7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Análisis de proceso/Tiempos Finales.xlsx
+++ b/Análisis de proceso/Tiempos Finales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Universidad\Trabajos_Mecatronica\9_Semestre\APM\INFERA\Análisis de proceso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7502BE-C138-4AC6-A797-ACC8E371F4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD4C277-28DC-42EF-B734-497D1A9B7C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4A614593-3E09-4BE1-8029-98BCD4E98846}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A614593-3E09-4BE1-8029-98BCD4E98846}"/>
   </bookViews>
   <sheets>
     <sheet name="Post" sheetId="2" r:id="rId1"/>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD44ECC-4235-4D14-AD2E-616CDD1C34CC}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,16 +617,17 @@
         <v>1508</v>
       </c>
       <c r="D3" s="5">
-        <v>1835</v>
+        <v>1635</v>
       </c>
       <c r="E3" s="5">
-        <v>49.76</v>
+        <v>44.04</v>
       </c>
       <c r="F3" s="5">
         <v>48.96</v>
       </c>
-      <c r="G3" s="5">
-        <v>1.21</v>
+      <c r="G3" s="8">
+        <f>60/E3</f>
+        <v>1.3623978201634879</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -640,7 +641,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
@@ -653,7 +654,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -666,7 +667,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
@@ -679,7 +680,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -692,16 +693,17 @@
         <v>1520</v>
       </c>
       <c r="D8" s="5">
-        <v>1847</v>
+        <v>1647</v>
       </c>
       <c r="E8" s="5">
-        <v>49.76</v>
+        <v>44.04</v>
       </c>
       <c r="F8" s="5">
         <v>48.96</v>
       </c>
-      <c r="G8" s="5">
-        <v>1.21</v>
+      <c r="G8" s="8">
+        <f>60/E8</f>
+        <v>1.3623978201634879</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -715,7 +717,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
@@ -728,7 +730,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
@@ -741,7 +743,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -754,16 +756,17 @@
         <v>1544</v>
       </c>
       <c r="D12" s="5">
-        <v>1746</v>
+        <v>1691</v>
       </c>
       <c r="E12" s="5">
-        <v>99.53</v>
+        <v>88.08</v>
       </c>
       <c r="F12" s="5">
         <v>97.92</v>
       </c>
       <c r="G12" s="8">
-        <v>0.6</v>
+        <f>60/E12</f>
+        <v>0.68119891008174394</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -808,21 +811,21 @@
     <row r="16" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="G3:G7"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="G12:G15"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -832,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A68451-FCD3-486E-B49B-91312CF37AB7}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,21 +1081,21 @@
     <row r="16" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="D3:D7"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="G12:G15"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
